--- a/data/trans_bre/P15B_tráfico-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P15B_tráfico-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-7.210970179398185</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-5.184191828292314</v>
+        <v>-5.184191828292317</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.5683124574863506</v>
@@ -649,7 +649,7 @@
         <v>-0.2881372815386674</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.2207512033468664</v>
+        <v>-0.2207512033468665</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-43.51953197117238</v>
+        <v>-44.29559625785826</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-23.32663490348492</v>
+        <v>-22.77265904980609</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-20.49025224241291</v>
+        <v>-20.40434014342406</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-23.61659808545501</v>
+        <v>-23.0969872766506</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.9135182958622506</v>
+        <v>-1</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.5450805558377034</v>
+        <v>-0.5383857447789255</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.6589927910638481</v>
+        <v>-0.6387775982582878</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.7288236451836874</v>
+        <v>-0.7502426435965776</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.75229824494243</v>
+        <v>5.271664789359028</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.656973024077085</v>
+        <v>7.183266327711527</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.955891410523081</v>
+        <v>7.732857235564708</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16.83376360244104</v>
+        <v>15.47781090764896</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.48272406336042</v>
+        <v>0.8999883676802637</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.340161689679484</v>
+        <v>0.2629174989527664</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3766964779725721</v>
+        <v>0.4604240178409219</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.281046694470971</v>
+        <v>1.323499411158933</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-39.4109931602146</v>
+        <v>-40.19159778972453</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-12.03374104167625</v>
+        <v>-11.43189759148317</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-20.28142047444697</v>
+        <v>-19.03616115017252</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-29.97408787930807</v>
+        <v>-28.30459994273151</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.8925356159343661</v>
+        <v>-0.900845546582821</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5832945517081405</v>
+        <v>-0.5564390700915811</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7288500527683681</v>
+        <v>-0.7329857582361747</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.7409587750453225</v>
+        <v>-0.7190251701163575</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.465233495522847</v>
+        <v>-1.036346403003787</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.5832459244827</v>
+        <v>11.63685053751745</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.866974460782215</v>
+        <v>10.83077574399102</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.386864871335631</v>
+        <v>2.005812839426099</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.06615486590403979</v>
+        <v>0.08216519526412649</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.064405278530934</v>
+        <v>1.308107049284914</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.156664104639568</v>
+        <v>1.286285495744511</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2870903383778341</v>
+        <v>0.164931606002363</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>6.987086410355969</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-9.279886881167441</v>
+        <v>-9.279886881167435</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7098737943973976</v>
@@ -849,7 +849,7 @@
         <v>0.461334598534732</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.326981081443969</v>
+        <v>-0.3269810814439688</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-8.354802014768575</v>
+        <v>-9.304642840753445</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-23.97833599924303</v>
+        <v>-24.26294719006069</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-9.213526388070424</v>
+        <v>-8.066165696494336</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-25.687402945311</v>
+        <v>-26.73915498860545</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2610546173535906</v>
+        <v>-0.3659332792281641</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.7293742246141555</v>
+        <v>-0.7354920631401041</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4427829939325306</v>
+        <v>-0.4276595094014536</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.6669314865193183</v>
+        <v>-0.6778793734567807</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>40.80645079708931</v>
+        <v>37.91313682466891</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.237170236224917</v>
+        <v>3.381592443594813</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>23.16877935847099</v>
+        <v>22.6362154184848</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.437821423183545</v>
+        <v>4.460584192284203</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3.485277605664814</v>
+        <v>2.976824330581447</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3028692385064153</v>
+        <v>0.2332311042764121</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>3.207065597268715</v>
+        <v>3.125250739508156</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.297306403460936</v>
+        <v>0.2655504667111903</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-24.75502238084498</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11.22344818086193</v>
+        <v>11.22344818086194</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.4740384616512507</v>
@@ -949,7 +949,7 @@
         <v>-0.8371931845487612</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.4081417051366028</v>
+        <v>0.408141705136603</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-54.62496325943776</v>
+        <v>-53.45006080237047</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-34.37261466956258</v>
+        <v>-35.65104083888346</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-45.81071060932842</v>
+        <v>-48.09875055791759</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-9.304707562446005</v>
+        <v>-10.71483989707541</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8656769857642188</v>
+        <v>-0.871097488247545</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.834727916335805</v>
+        <v>-0.8641688657345827</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2837974875050384</v>
+        <v>-0.3104845082154951</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>11.04959615861548</v>
+        <v>9.862859758496962</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.106348412281865</v>
+        <v>8.406566019877133</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-5.850145288708482</v>
+        <v>-5.389275495515398</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>32.36651320060406</v>
+        <v>29.83303235092909</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3919319364162128</v>
+        <v>0.2639318709135908</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5503750046461842</v>
+        <v>0.4365271572076499</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.489237567359395</v>
+        <v>0.8659151361801577</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.081058026647514</v>
+        <v>1.729772289599266</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-22.80437403666861</v>
+        <v>-23.83490140123341</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-14.09529090166224</v>
+        <v>-14.27358905074335</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-13.39130272417395</v>
+        <v>-12.5614958357453</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-13.93402956883557</v>
+        <v>-13.46810610137232</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.6117149468459294</v>
+        <v>-0.6358230417179724</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.4777291790782124</v>
+        <v>-0.4839784780708145</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.5168971312586095</v>
+        <v>-0.5087782684535938</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.4289998018416659</v>
+        <v>-0.4200136532763502</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.624701623155657</v>
+        <v>0.6791621719531722</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7889527417056709</v>
+        <v>0.5695476262576034</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.61787530182642</v>
+        <v>2.691750841727348</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.221520250796338</v>
+        <v>4.746392511651761</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.08003538143826625</v>
+        <v>0.02827288932166868</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04107803517599658</v>
+        <v>0.02857311501019443</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1706014473982809</v>
+        <v>0.1578447039705413</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.1587739516934428</v>
+        <v>0.2179883002263661</v>
       </c>
     </row>
     <row r="19">
